--- a/DeepSeek/DeepSeekDOC.xlsx
+++ b/DeepSeek/DeepSeekDOC.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\IGOR\IGOR\IgorAyelloBorges\PROJETOS\FinancialMarketSimulatorRealData\DeepSeek\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09FF7FD6-5F0A-47F6-BEC4-2CBC5E8F9FBF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5EC1F988-4302-4CAD-B865-116C6FD8C743}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{94286A15-74E0-4448-8809-569685BF6ECD}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="30">
   <si>
     <t>Pergunta</t>
   </si>
@@ -507,6 +507,386 @@
     return {"message": "Bem-vindo ao Simulador de Mercado Financeiro"}
 ```
 Com essas correções, o erro deve ser resolvido e a aplicação funcionará corretamente.</t>
+  </si>
+  <si>
+    <t>Criar tabela SegmentoClassificacao</t>
+  </si>
+  <si>
+    <t>Preciso gerar um script para criar uma tabela no SQL Server onde deverá constar a primary key identity ID, a sigla e o descritivo.</t>
+  </si>
+  <si>
+    <t>Criar tabela Segmento</t>
+  </si>
+  <si>
+    <t>Preciso gerar um script para criar uma tabela no SQL Server com o nome "Setor Econômico" onde deverá constar a primary key identity ID e o descritivo.</t>
+  </si>
+  <si>
+    <t>Criar tabela Subsetor</t>
+  </si>
+  <si>
+    <t>Preciso gerar um script para criar uma tabela no SQL Server com o nome "Subsetor" onde deverá constar a primary key identity ID e o descritivo.</t>
+  </si>
+  <si>
+    <t>Criar tabela SetorEconomico</t>
+  </si>
+  <si>
+    <t>Preciso gerar um script para criar uma tabela no SQL Server com o nome "Segmento" onde deverá constar a primary key identity ID e o descritivo.</t>
+  </si>
+  <si>
+    <t>Criar tabela Empresa</t>
+  </si>
+  <si>
+    <t>Preciso gerar um script para criar uma tabela no SQL Server com o nome "Empresa" onde deverá constar a primary key identity ID, Nome, código (sigla) fazendo chave estrangeira para as seguintes 
+tabelas dbo.SegmentoClassificacao (NÃO obrigatória), SetorEconomico (obrigatória), Subsetor (obrigatória) e Segmento (obrigatória).</t>
+  </si>
+  <si>
+    <t>Para criar uma tabela no SQL Server com uma **primary key identity ID**, uma coluna para a **sigla** e outra para o **descritivo**, você pode usar um script SQL. Abaixo está um exemplo de como criar essa tabela:
+---
+### Script SQL para Criar a Tabela
+```sql
+CREATE TABLE Ativos (
+    ID INT IDENTITY(1,1) PRIMARY KEY,  -- Coluna ID como primary key e autoincremento
+    Sigla NVARCHAR(10) NOT NULL,       -- Coluna para a sigla (tamanho máximo de 10 caracteres)
+    Descritivo NVARCHAR(100) NOT NULL  -- Coluna para o descritivo (tamanho máximo de 100 caracteres)
+);
+```
+---
+### Explicação do Script
+1. **`ID INT IDENTITY(1,1) PRIMARY KEY`**:
+   - `ID`: Nome da coluna.
+   - `INT`: Tipo de dado inteiro.
+   - `IDENTITY(1,1)`: Define que a coluna é autoincrementada, começando em 1 e incrementando de 1 em 1.
+   - `PRIMARY KEY`: Define a coluna como chave primária.
+2. **`Sigla NVARCHAR(10) NOT NULL`**:
+   - `Sigla`: Nome da coluna.
+   - `NVARCHAR(10)`: Tipo de dado para strings com tamanho máximo de 10 caracteres.
+   - `NOT NULL`: Impede que o valor seja nulo.
+3. **`Descritivo NVARCHAR(100) NOT NULL`**:
+   - `Descritivo`: Nome da coluna.
+   - `NVARCHAR(100)`: Tipo de dado para strings com tamanho máximo de 100 caracteres.
+   - `NOT NULL`: Impede que o valor seja nulo.
+---
+### Como Executar o Script
+1. **No SQL Server Management Studio (SSMS)**:
+   - Abra o SSMS.
+   - Conecte-se ao banco de dados desejado.
+   - Abra uma nova janela de consulta.
+   - Cole o script SQL acima.
+   - Execute o script (tecla `F5` ou botão "Executar").
+2. **Via Python (usando SQLAlchemy ou pyodbc)**:
+   Se você quiser executar o script diretamente do Python, pode usar uma biblioteca como `pyodbc` ou `SQLAlchemy`. Aqui está um exemplo usando `pyodbc`:
+   ```python
+   import pyodbc
+   # Configurações de conexão
+   server = "localhost"
+   database = "SeuBancoDeDados"
+   username = "sa"
+   password = "YourPassword123"
+   connection_string = f"DRIVER={{ODBC Driver 17 for SQL Server}};SERVER={server};DATABASE={database};UID={username};PWD={password}"
+   # Conecta ao banco de dados
+   conn = pyodbc.connect(connection_string)
+   cursor = conn.cursor()
+   # Script SQL para criar a tabela
+   create_table_sql = """
+   CREATE TABLE Ativos (
+       ID INT IDENTITY(1,1) PRIMARY KEY,
+       Sigla NVARCHAR(10) NOT NULL,
+       Descritivo NVARCHAR(100) NOT NULL
+   );
+   """
+   # Executa o script
+   cursor.execute(create_table_sql)
+   conn.commit()
+   # Fecha a conexão
+   cursor.close()
+   conn.close()
+   print("Tabela 'Ativos' criada com sucesso!")
+   ```
+3. **Via Docker (se estiver usando um container SQL Server)**:
+   Se você estiver usando um container Docker para o SQL Server, pode executar o script diretamente no container:
+   ```bash
+   docker exec -it sqlserver_db /opt/mssql-tools/bin/sqlcmd -S localhost -U sa -P YourPassword123 -d SeuBancoDeDados -Q "CREATE TABLE Ativos (ID INT IDENTITY(1,1) PRIMARY KEY, Sigla NVARCHAR(10) NOT NULL, Descritivo NVARCHAR(100) NOT NULL);"
+   ```
+---
+### Verificando a Tabela Criada
+Após executar o script, você pode verificar se a tabela foi criada com sucesso:
+1. No SSMS:
+   - Expanda o banco de dados no Object Explorer.
+   - Verifique se a tabela `Ativos` aparece na lista de tabelas.
+2. Via SQL:
+   - Execute a consulta:
+     ```sql
+     SELECT * FROM INFORMATION_SCHEMA.TABLES WHERE TABLE_NAME = 'Ativos';
+     ```
+   - Se a tabela existir, ela será listada.
+3. Via Python:
+   - Use o seguinte código para listar as tabelas:
+     ```python
+     cursor.execute("SELECT * FROM INFORMATION_SCHEMA.TABLES WHERE TABLE_NAME = 'Ativos';")
+     rows = cursor.fetchall()
+     for row in rows:
+         print(row)
+     ```
+---
+### Adicionando Dados à Tabela
+Agora que a tabela está criada, você pode inserir dados nela. Aqui está um exemplo de inserção:
+```sql
+INSERT INTO Ativos (Sigla, Descritivo)
+VALUES ('PETR4', 'Petrobras PN'),
+       ('VALE3', 'Vale ON'),
+       ('ITUB4', 'Itaú Unibanco PN');
+```
+Ou, via Python:
+```python
+insert_sql = """
+INSERT INTO Ativos (Sigla, Descritivo)
+VALUES (?, ?);
+"""
+data = [
+    ('PETR4', 'Petrobras PN'),
+    ('VALE3', 'Vale ON'),
+    ('ITUB4', 'Itaú Unibanco PN'),
+]
+cursor.executemany(insert_sql, data)
+conn.commit()
+```
+---
+### Resumo
+- O script SQL cria uma tabela `Ativos` com uma coluna `ID` autoincrementada como chave primária, uma coluna `Sigla` e uma coluna `Descritivo`.
+- Você pode executar o script diretamente no SQL Server, via Python ou em um container Docker.
+- Após criar a tabela, você pode inserir dados e consultá-los.
+Com isso, sua tabela estará pronta para uso no seu projeto!</t>
+  </si>
+  <si>
+    <t>Para criar uma tabela no SQL Server chamada **"Setor Econômico"** com uma **primary key identity ID** e uma coluna para o **descritivo**, você pode usar o seguinte script SQL:
+---
+### Script SQL para Criar a Tabela
+```sql
+CREATE TABLE [Setor Econômico] (
+    ID INT IDENTITY(1,1) PRIMARY KEY,  -- Coluna ID como primary key e autoincremento
+    Descritivo NVARCHAR(100) NOT NULL  -- Coluna para o descritivo (tamanho máximo de 100 caracteres)
+);
+```
+---
+### Explicação do Script
+1. **`ID INT IDENTITY(1,1) PRIMARY KEY`**:
+   - `ID`: Nome da coluna.
+   - `INT`: Tipo de dado inteiro.
+   - `IDENTITY(1,1)`: Define que a coluna é autoincrementada, começando em 1 e incrementando de 1 em 1.
+   - `PRIMARY KEY`: Define a coluna como chave primária.
+2. **`Descritivo NVARCHAR(100) NOT NULL`**:
+   - `Descritivo`: Nome da coluna.
+   - `NVARCHAR(100)`: Tipo de dado para strings com tamanho máximo de 100 caracteres.
+   - `NOT NULL`: Impede que o valor seja nulo.
+3. **`[Setor Econômico]`**:
+   - O nome da tabela está entre colchetes (`[ ]`) porque contém espaços. No SQL Server, nomes de tabelas ou colunas com espaços ou caracteres especiais devem ser escapados com colchetes.
+---
+### Como Executar o Script
+1. **No SQL Server Management Studio (SSMS)**:
+   - Abra o SSMS.
+   - Conecte-se ao banco de dados desejado.
+   - Abra uma nova janela de consulta.
+   - Cole o script SQL acima.
+   - Execute o script (tecla `F5` ou botão "Executar").
+2. **Via Python (usando SQLAlchemy ou pyodbc)**:
+   Se você quiser executar o script diretamente do Python, pode usar uma biblioteca como `pyodbc` ou `SQLAlchemy`. Aqui está um exemplo usando `pyodbc`:
+   ```python
+   import pyodbc
+   # Configurações de conexão
+   server = "localhost"
+   database = "SeuBancoDeDados"
+   username = "sa"
+   password = "YourPassword123"
+   connection_string = f"DRIVER={{ODBC Driver 17 for SQL Server}};SERVER={server};DATABASE={database};UID={username};PWD={password}"
+   # Conecta ao banco de dados
+   conn = pyodbc.connect(connection_string)
+   cursor = conn.cursor()
+   # Script SQL para criar a tabela
+   create_table_sql = """
+   CREATE TABLE [Setor Econômico] (
+       ID INT IDENTITY(1,1) PRIMARY KEY,
+       Descritivo NVARCHAR(100) NOT NULL
+   );
+   """
+   # Executa o script
+   cursor.execute(create_table_sql)
+   conn.commit()
+   # Fecha a conexão
+   cursor.close()
+   conn.close()
+   print("Tabela 'Setor Econômico' criada com sucesso!")
+   ```
+3. **Via Docker (se estiver usando um container SQL Server)**:
+   Se você estiver usando um container Docker para o SQL Server, pode executar o script diretamente no container:
+   ```bash
+   docker exec -it sqlserver_db /opt/mssql-tools/bin/sqlcmd -S localhost -U sa -P YourPassword123 -d SeuBancoDeDados -Q "CREATE TABLE [Setor Econômico] (ID INT IDENTITY(1,1) PRIMARY KEY, Descritivo NVARCHAR(100) NOT NULL);"
+   ```
+---
+### Verificando a Tabela Criada
+Após executar o script, você pode verificar se a tabela foi criada com sucesso:
+1. No SSMS:
+   - Expanda o banco de dados no Object Explorer.
+   - Verifique se a tabela `Setor Econômico` aparece na lista de tabelas.
+2. Via SQL:
+   - Execute a consulta:
+     ```sql
+     SELECT * FROM INFORMATION_SCHEMA.TABLES WHERE TABLE_NAME = 'Setor Econômico';
+     ```
+   - Se a tabela existir, ela será listada.
+3. Via Python:
+   - Use o seguinte código para listar as tabelas:
+     ```python
+     cursor.execute("SELECT * FROM INFORMATION_SCHEMA.TABLES WHERE TABLE_NAME = 'Setor Econômico';")
+     rows = cursor.fetchall()
+     for row in rows:
+         print(row)
+     ```
+---
+### Adicionando Dados à Tabela
+Agora que a tabela está criada, você pode inserir dados nela. Aqui está um exemplo de inserção:
+```sql
+INSERT INTO [Setor Econômico] (Descritivo)
+VALUES ('Tecnologia da Informação'),
+       ('Energia'),
+       ('Financeiro');
+```
+Ou, via Python:
+```python
+insert_sql = """
+INSERT INTO [Setor Econômico] (Descritivo)
+VALUES (?);
+"""
+data = [
+    ('Tecnologia da Informação',),
+    ('Energia',),
+    ('Financeiro',),
+]
+cursor.executemany(insert_sql, data)
+conn.commit()
+```
+---
+### Resumo
+- O script SQL cria uma tabela chamada `Setor Econômico` com uma coluna `ID` autoincrementada como chave primária e uma coluna `Descritivo`.
+- Você pode executar o script diretamente no SQL Server, via Python ou em um container Docker.
+- Após criar a tabela, você pode inserir dados e consultá-los.
+Com isso, sua tabela `Setor Econômico` estará pronta para uso no seu projeto!</t>
+  </si>
+  <si>
+    <t>Para criar uma tabela no SQL Server chamada **"Subsetor"** com uma **primary key identity ID** e uma coluna para o **descritivo**, você pode usar o seguinte script SQL:
+---
+### Script SQL para Criar a Tabela
+```sql
+CREATE TABLE Subsetor (
+    ID INT IDENTITY(1,1) PRIMARY KEY,  -- Coluna ID como primary key e autoincremento
+    Descritivo NVARCHAR(100) NOT NULL  -- Coluna para o descritivo (tamanho máximo de 100 caracteres)
+);
+```
+---
+### Explicação do Script
+1. **`ID INT IDENTITY(1,1) PRIMARY KEY`**:
+   - `ID`: Nome da coluna.
+   - `INT`: Tipo de dado inteiro.
+   - `IDENTITY(1,1)`: Define que a coluna é autoincrementada, começando em 1 e incrementando de 1 em 1.
+   - `PRIMARY KEY`: Define a coluna como chave primária.
+2. **`Descritivo NVARCHAR(100) NOT NULL`**:
+   - `Descritivo`: Nome da coluna.
+   - `NVARCHAR(100)`: Tipo de dado para strings com tamanho máximo de 100 caracteres.
+   - `NOT NULL`: Impede que o valor seja nulo.
+3. **`Subsetor`**:
+   - Nome da tabela. Como não contém espaços ou caracteres especiais, não é necessário usar colchetes.
+---
+### Como Executar o Script
+1. **No SQL Server Management Studio (SSMS)**:
+   - Abra o SSMS.
+   - Conecte-se ao banco de dados desejado.
+   - Abra uma nova janela de consulta.
+   - Cole o script SQL acima.
+   - Execute o script (tecla `F5` ou botão "Executar").
+2. **Via Python (usando SQLAlchemy ou pyodbc)**:
+   Se você quiser executar o script diretamente do Python, pode usar uma biblioteca como `pyodbc` ou `SQLAlchemy`. Aqui está um exemplo usando `pyodbc`:
+   ```python
+   import pyodbc
+   # Configurações de conexão
+   server = "localhost"
+   database = "SeuBancoDeDados"
+   username = "sa"
+   password = "YourPassword123"
+   connection_string = f"DRIVER={{ODBC Driver 17 for SQL Server}};SERVER={server};DATABASE={database};UID={username};PWD={password}"
+   # Conecta ao banco de dados
+   conn = pyodbc.connect(connection_string)
+   cursor = conn.cursor()
+   # Script SQL para criar a tabela
+   create_table_sql = """
+   CREATE TABLE Subsetor (
+       ID INT IDENTITY(1,1) PRIMARY KEY,
+       Descritivo NVARCHAR(100) NOT NULL
+   );
+   """
+   # Executa o script
+   cursor.execute(create_table_sql)
+   conn.commit()
+   # Fecha a conexão
+   cursor.close()
+   conn.close()
+   print("Tabela 'Subsetor' criada com sucesso!")
+   ```
+3. **Via Docker (se estiver usando um container SQL Server)**:
+   Se você estiver usando um container Docker para o SQL Server, pode executar o script diretamente no container:
+   ```bash
+   docker exec -it sqlserver_db /opt/mssql-tools/bin/sqlcmd -S localhost -U sa -P YourPassword123 -d SeuBancoDeDados -Q "CREATE TABLE Subsetor (ID INT IDENTITY(1,1) PRIMARY KEY, Descritivo NVARCHAR(100) NOT NULL);"
+   ```
+---
+### Verificando a Tabela Criada
+Após executar o script, você pode verificar se a tabela foi criada com sucesso:
+1. No SSMS:
+   - Expanda o banco de dados no Object Explorer.
+   - Verifique se a tabela `Subsetor` aparece na lista de tabelas.
+2. Via SQL:
+   - Execute a consulta:
+     ```sql
+     SELECT * FROM INFORMATION_SCHEMA.TABLES WHERE TABLE_NAME = 'Subsetor';
+     ```
+   - Se a tabela existir, ela será listada.
+3. Via Python:
+   - Use o seguinte código para listar as tabelas:
+     ```python
+     cursor.execute("SELECT * FROM INFORMATION_SCHEMA.TABLES WHERE TABLE_NAME = 'Subsetor';")
+     rows = cursor.fetchall()
+     for row in rows:
+         print(row)
+     ```
+---
+### Adicionando Dados à Tabela
+Agora que a tabela está criada, você pode inserir dados nela. Aqui está um exemplo de inserção:
+```sql
+INSERT INTO Subsetor (Descritivo)
+VALUES ('Software'),
+       ('Petróleo e Gás'),
+       ('Bancos');
+```
+Ou, via Python:
+```python
+insert_sql = """
+INSERT INTO Subsetor (Descritivo)
+VALUES (?);
+"""
+data = [
+    ('Software',),
+    ('Petróleo e Gás',),
+    ('Bancos',),
+]
+cursor.executemany(insert_sql, data)
+conn.commit()
+```
+---
+### Resumo
+- O script SQL cria uma tabela chamada `Subsetor` com uma coluna `ID` autoincrementada como chave primária e uma coluna `Descritivo`.
+- Você pode executar o script diretamente no SQL Server, via Python ou em um container Docker.
+- Após criar a tabela, você pode inserir dados e consultá-los.
+Com isso, sua tabela `Subsetor` estará pronta para uso no seu projeto!</t>
+  </si>
+  <si>
+    <t>O servidor não respondeu a tempo então tive que fazer a query manualmente</t>
   </si>
 </sst>
 </file>
@@ -884,10 +1264,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C306EA0C-B462-426C-9093-F405642008FF}">
-  <dimension ref="A1:G4"/>
+  <dimension ref="A1:G9"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -982,6 +1362,82 @@
         <v>0.85972222222222228</v>
       </c>
     </row>
+    <row r="5" spans="1:7" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="E5" s="3">
+        <v>0.94305555555555554</v>
+      </c>
+      <c r="F5" s="3">
+        <v>0.9458333333333333</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>18</v>
+      </c>
+      <c r="B6" t="s">
+        <v>19</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="E6" s="3">
+        <v>0.9458333333333333</v>
+      </c>
+      <c r="F6" s="3">
+        <v>0.94722222222222219</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>20</v>
+      </c>
+      <c r="B7" t="s">
+        <v>21</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="E7" s="3">
+        <v>0.94791666666666663</v>
+      </c>
+      <c r="F7" s="3">
+        <v>0.95</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>22</v>
+      </c>
+      <c r="B8" t="s">
+        <v>23</v>
+      </c>
+      <c r="D8" t="s">
+        <v>29</v>
+      </c>
+      <c r="E8" s="3">
+        <v>0.96180555555555558</v>
+      </c>
+      <c r="F8" s="3">
+        <v>0.96388888888888891</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="120" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>24</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
